--- a/result_new.xlsx
+++ b/result_new.xlsx
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3635.97</v>
+        <v>3149.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>-486.72</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-187.5</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1117.48</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-1117.48</v>
       </c>
     </row>
     <row r="9">
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>287.46</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-287.46</v>
       </c>
     </row>
     <row r="24">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1131.312</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1131.31</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3159</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-3159</v>
       </c>
     </row>
     <row r="34">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35109.36</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-35109.36</v>
       </c>
     </row>
     <row r="35">
@@ -1326,10 +1326,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>268.554</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-268.55</v>
       </c>
     </row>
     <row r="46">
@@ -1347,10 +1347,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2152.72</v>
+        <v>547.2</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>-1605.52</v>
       </c>
     </row>
     <row r="47">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2412.432</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-2412.43</v>
       </c>
     </row>
     <row r="48">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4312.099999999999</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-0</v>
+        <v>-4312.1</v>
       </c>
     </row>
     <row r="64">
